--- a/ExcelData/Skill.xlsx
+++ b/ExcelData/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Fight\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017EC50D-4A63-48EA-8385-ED4A886A0ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAD9A88-175A-43AA-801A-EA790A36BC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="17140" windowHeight="13030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每个轮次开始永久提升25%攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从天空坠下一柄灵剑，对目标造成300%攻击力的伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +205,6 @@
     <t>S020</t>
   </si>
   <si>
-    <t>接下来2回合内金币获取增加&lt;color=#00B6FF&gt;100%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>疗愈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,22 +273,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每回合开始恢复30%生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生命上限提升10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命上限提升30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命上限提升100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>造成伤害提升10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,14 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击速度增加50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击速度提升100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接下来2个回合造成伤害增加10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,23 +301,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本回合攻击速度增加50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合恢复20%生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合恢复50%生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合恢复100%生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合攻击力增加30%</t>
+    <t>每个轮次开始前永久提升10%攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始恢复10%生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限提升20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限提升50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度增加10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度提升50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合攻击速度增加25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合恢复10%生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合恢复30%生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合恢复80%生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合攻击力增加25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来2回合内金币获取增加&lt;color=#00B6FF&gt;50%&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -774,13 +774,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F4" s="1">
         <v>-1</v>
@@ -794,7 +794,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -811,16 +811,16 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F6" s="1">
         <v>-1</v>
@@ -828,13 +828,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -848,19 +848,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="1">
         <v>-1</v>
@@ -868,19 +868,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="1">
         <v>-1</v>
@@ -888,13 +888,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -908,13 +908,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -928,13 +928,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -948,19 +948,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F13" s="1">
         <v>-1</v>
@@ -968,19 +968,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F14" s="1">
         <v>-1</v>
@@ -988,19 +988,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="1">
         <v>-1</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="16" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -1028,13 +1028,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -1048,19 +1048,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F18" s="1">
         <v>-1</v>
@@ -1068,19 +1068,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F19" s="1">
         <v>-1</v>
@@ -1088,19 +1088,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
       <c r="E20" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F20" s="1">
         <v>-1</v>
@@ -1108,19 +1108,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F21" s="1">
         <v>-1</v>
@@ -1128,19 +1128,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="F22" s="1">
         <v>-1</v>
@@ -1148,19 +1148,19 @@
     </row>
     <row r="23" spans="1:6" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F23" s="1">
         <v>-1</v>
